--- a/biology/Médecine/Anorexigène/Anorexigène.xlsx
+++ b/biology/Médecine/Anorexigène/Anorexigène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anorexig%C3%A8ne</t>
+          <t>Anorexigène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les anorexigènes (du grec an- privatif et órexis, « appétit ») ou coupe-faim ou suppresseurs de l'appétit sont un groupe de médicaments qui diminuent l'appétit. La plupart d'entre eux appartiennent à la famille des amphétamines. Ce sont généralement des substances apparentées aux stupéfiants, qui sont réglementées ou interdites dans de nombreux pays (ils sont par exemple interdits en France).
-Ce terme désigne aussi les signaux centraux homéostatiques (neuropeptides sécrétés par des neurones hypothalamiques anorexigènes qui reçoivent des signaux périphériques — nerveux et hormonaux — de régulation à court terme et long terme) qui entraînent le processus progressif de rassasiement. Dans le noyau arqué de l'hypothalamus, les neurones à pro-opiomélanocortine (POMC) ont une fonction catabolique et anorexigène grâce à leur production de mélanocortines et du régulateur à la transcription de cocaïne et d'amphétamines (en)[2].
+Ce terme désigne aussi les signaux centraux homéostatiques (neuropeptides sécrétés par des neurones hypothalamiques anorexigènes qui reçoivent des signaux périphériques — nerveux et hormonaux — de régulation à court terme et long terme) qui entraînent le processus progressif de rassasiement. Dans le noyau arqué de l'hypothalamus, les neurones à pro-opiomélanocortine (POMC) ont une fonction catabolique et anorexigène grâce à leur production de mélanocortines et du régulateur à la transcription de cocaïne et d'amphétamines (en).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anorexig%C3%A8ne</t>
+          <t>Anorexigène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'amphétamine proprement dite (substance réglementée apparentée aux stupéfiants),
 Les sels du diéthylpropion (amfépramone) (Belgique : substances réglementées apparentées aux stupéfiants, retirées du marché),
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anorexig%C3%A8ne</t>
+          <t>Anorexigène</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire de la connaissance des effets secondaires graves de ces médicaments débute en Suisse à la fin des années 1960, où la mise sur le marché d'un de ces médicaments (l'Aminorex, non commercialisé en France, vendu dans plusieurs pays entre 1962 et 1972) a été suivie d'apparition rapide de cas d'hypertension artérielle pulmonaire primitive (HTAP). L'arrêt de commercialisation de ce médicament a mis fin à cette épidémie. Cette maladie, habituellement rare (incidence annuelle[Note 1] de l'ordre de 1 sur 200 000 à 1 000 000 d'habitants), est d'origine inconnue. Elle se traduit par l'apparition plus ou moins rapide d'une dyspnée d'effort (essoufflement à l'effort). Le pronostic est sombre, nécessitant dans les cas les plus graves une greffe cœur-poumons. Néanmoins, dans certains cas secondaires à la prise d'un de ces médicaments, la maladie a pu régresser à l'arrêt de celui-ci.
 Puis des cas isolés sont observés en Europe et aux États-Unis, mettant en cause la fenfluramine (Pondéral) à partir de 1981, et la dexfenfluramine (Isoméride) à partir de 1992.
